--- a/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
+++ b/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
+++ b/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
+++ b/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,75 +1505,67 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1591,21 +1575,13 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -1613,23 +1589,31 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1663,21 +1647,29 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1687,7 +1679,7 @@
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1721,24 +1713,24 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -1748,72 +1740,64 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -1831,21 +1815,29 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1855,7 +1847,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1889,19 +1881,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1911,7 +1903,7 @@
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1945,19 +1937,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -2001,19 +1993,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2057,19 +2049,19 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,53 +2071,45 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2135,21 +2119,13 @@
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2157,23 +2133,31 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2207,21 +2191,29 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2231,7 +2223,7 @@
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2265,24 +2257,24 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -2292,8 +2284,16 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2301,63 +2301,47 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2375,21 +2359,29 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2399,7 +2391,7 @@
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2433,19 +2425,19 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2455,7 +2447,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2489,19 +2481,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2545,19 +2537,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2601,19 +2593,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2623,7 +2615,7 @@
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2647,29 +2639,21 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2703,12 +2687,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr"/>
@@ -2717,12 +2701,12 @@
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -2732,64 +2716,56 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>bng</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>bng-condition-applies</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Biodiversity gain condition applies</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>bng</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>How any natural habitats on the development site will be improved by the proposed works.</t>
@@ -2797,28 +2773,36 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-applies</t>
+          <t>bng-condition-exemption-reasons</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
+          <t>Biodiversity gain condition exemption reason[]</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>exemption-type</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>Exemption type</t>
+        </is>
+      </c>
       <c r="H43" s="2" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2847,12 +2831,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>exemption-type</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Exemption type</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr"/>
@@ -2861,12 +2845,12 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -2885,22 +2869,22 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-exemption-reasons</t>
+          <t>bng-details</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
+          <t>Biodiversity net gain details</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>pre-development-date</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
@@ -2909,12 +2893,12 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -2943,12 +2927,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>pre-development-date</t>
+          <t>pre-development-biodiversity-value</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -2957,12 +2941,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2991,12 +2975,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>pre-development-biodiversity-value</t>
+          <t>earlier-date-reason</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -3005,17 +2989,17 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3039,12 +3023,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>earlier-date-reason</t>
+          <t>habitat-loss-after-2020</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Habitat loss after 2020</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr"/>
@@ -3053,12 +3037,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3087,31 +3071,39 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-after-2020</t>
+          <t>habitat-loss-details</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>loss-date</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>Loss date</t>
+        </is>
+      </c>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3145,24 +3137,24 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>loss-date</t>
+          <t>pre-loss-biodiversity-value</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>Loss date</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -3201,29 +3193,29 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>pre-loss-biodiversity-value</t>
+          <t>supporting-evidence</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Supporting evidence</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3247,39 +3239,31 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-details</t>
+          <t>metric-publication-date</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>supporting-evidence</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>Supporting evidence</t>
-        </is>
-      </c>
+          <t>Metric publication date</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3303,12 +3287,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>metric-publication-date</t>
+          <t>irreplaceable-habitats</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3317,12 +3301,12 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -3351,12 +3335,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats</t>
+          <t>irreplaceable-habitats-details</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Irreplaceable habitats details</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3365,17 +3349,17 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3399,21 +3383,29 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats-details</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3423,7 +3415,7 @@
       </c>
       <c r="N55" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3457,19 +3449,19 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3484,48 +3476,40 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>bng-details</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr"/>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3542,27 +3526,27 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Community consultation</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>community-consultation</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>have-consulted</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Have consulted</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3573,12 +3557,12 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Whether community consultation has been carried out</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -3588,16 +3572,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Community consultation</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>community-consultation</t>
-        </is>
-      </c>
+      <c r="A59" s="2" t="n"/>
+      <c r="B59" s="2" t="n"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
           <t>What community consultation activities have taken place as part of the application</t>
@@ -3605,12 +3581,12 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>have-consulted</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Have consulted</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3621,36 +3597,44 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Whether community consultation has been carried out</t>
+          <t>Provide details of the community consultation</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>What community consultation activities have taken place as part of the application</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
@@ -3661,31 +3645,23 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Provide details of the community consultation</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -3693,12 +3669,12 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -3709,17 +3685,17 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3733,12 +3709,12 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -3749,7 +3725,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3764,21 +3740,29 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n"/>
-      <c r="B63" s="2" t="n"/>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
@@ -3789,7 +3773,7 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
@@ -3799,21 +3783,13 @@
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3821,12 +3797,12 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -3837,12 +3813,12 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
@@ -3861,12 +3837,12 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
@@ -3877,12 +3853,12 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
@@ -3892,21 +3868,29 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Demolition reason</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>demolition-reason</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Why demolition is necessary at the development site</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3917,7 +3901,7 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Why is it necessary to demolish all or part of the building(s) and structure(s)?</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3934,27 +3918,27 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Demolition reason</t>
+          <t>Ownership certificates and agricultural land declaration</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>demolition-reason</t>
+          <t>ownership-certs</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Why demolition is necessary at the development site</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Sole owner</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3965,12 +3949,12 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Why is it necessary to demolish all or part of the building(s) and structure(s)?</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -3980,16 +3964,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -3997,12 +3973,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -4013,7 +3989,7 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -4037,33 +4013,49 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4097,19 +4089,19 @@
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4119,7 +4111,7 @@
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4153,19 +4145,19 @@
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
@@ -4209,19 +4201,19 @@
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J72" s="2" t="inlineStr"/>
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
@@ -4265,19 +4257,19 @@
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J73" s="2" t="inlineStr"/>
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4287,7 +4279,7 @@
       </c>
       <c r="N73" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4311,34 +4303,26 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr"/>
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
@@ -4357,36 +4341,28 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr"/>
       <c r="H75" s="2" t="inlineStr"/>
       <c r="I75" s="2" t="inlineStr"/>
       <c r="J75" s="2" t="inlineStr"/>
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4405,23 +4381,31 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr"/>
-      <c r="G76" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H76" s="2" t="inlineStr"/>
       <c r="I76" s="2" t="inlineStr"/>
       <c r="J76" s="2" t="inlineStr"/>
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4431,7 +4415,7 @@
       </c>
       <c r="N76" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4455,12 +4439,12 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -4469,12 +4453,12 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
@@ -4493,41 +4477,33 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr"/>
       <c r="H78" s="2" t="inlineStr"/>
       <c r="I78" s="2" t="inlineStr"/>
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4541,12 +4517,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4557,12 +4533,12 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
@@ -4581,12 +4557,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4597,7 +4573,7 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4621,12 +4597,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4637,12 +4613,12 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
@@ -4652,21 +4628,29 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4677,31 +4661,23 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -4709,12 +4685,12 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4725,17 +4701,17 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4749,12 +4725,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr"/>
@@ -4765,7 +4741,7 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4789,12 +4765,12 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr"/>
@@ -4805,7 +4781,7 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
@@ -4829,12 +4805,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
@@ -4845,7 +4821,7 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
@@ -4860,21 +4836,29 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n"/>
-      <c r="B87" s="2" t="n"/>
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4885,7 +4869,7 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
@@ -4895,21 +4879,13 @@
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -4917,12 +4893,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4933,12 +4909,12 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
@@ -4957,12 +4933,12 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr"/>
@@ -4973,17 +4949,17 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4973,12 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr"/>
@@ -5013,17 +4989,17 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5037,12 +5013,12 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr"/>
@@ -5053,36 +5029,44 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Related applications</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>related-applications</t>
+        </is>
+      </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of any other development proposals made for the site</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>has-related-applications</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Has related applications</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
@@ -5093,60 +5077,60 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Are there any related applications, previous proposals or demolitions for the site</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>Related applications</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="A93" s="2" t="n"/>
+      <c r="B93" s="2" t="n"/>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>Details of any other development proposals made for the site</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
         <is>
           <t>related-applications</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>Details of any other development proposals made for the site</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>has-related-applications</t>
-        </is>
-      </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Has related applications</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr"/>
-      <c r="G93" s="2" t="inlineStr"/>
+          <t>Related applications[]</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H93" s="2" t="inlineStr"/>
       <c r="I93" s="2" t="inlineStr"/>
       <c r="J93" s="2" t="inlineStr"/>
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Are there any related applications, previous proposals or demolitions for the site</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
@@ -5175,12 +5159,12 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr"/>
@@ -5189,7 +5173,7 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5223,12 +5207,12 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr"/>
@@ -5237,7 +5221,7 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5247,36 +5231,44 @@
       </c>
       <c r="N95" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Details of any other development proposals made for the site</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>related-applications</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Related applications[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>decision-date</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -5285,12 +5277,12 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
@@ -5300,16 +5292,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="n"/>
+      <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -5327,12 +5311,12 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -5341,12 +5325,12 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
@@ -5375,12 +5359,12 @@
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr"/>
@@ -5389,7 +5373,7 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
@@ -5423,12 +5407,12 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr"/>
@@ -5437,12 +5421,12 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
@@ -5471,12 +5455,12 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr"/>
@@ -5485,7 +5469,7 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
@@ -5519,12 +5503,12 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -5533,7 +5517,7 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5567,12 +5551,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5581,7 +5565,7 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5615,12 +5599,12 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5629,12 +5613,12 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
@@ -5663,12 +5647,12 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr"/>
@@ -5677,7 +5661,7 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
@@ -5692,64 +5676,56 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n"/>
-      <c r="B105" s="2" t="n"/>
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr"/>
       <c r="H105" s="2" t="inlineStr"/>
       <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A106" s="2" t="n"/>
+      <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -5757,12 +5733,12 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr"/>
@@ -5773,12 +5749,12 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
@@ -5797,12 +5773,12 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F107" s="2" t="inlineStr"/>
@@ -5813,17 +5789,17 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5837,23 +5813,31 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr"/>
-      <c r="G108" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H108" s="2" t="inlineStr"/>
       <c r="I108" s="2" t="inlineStr"/>
       <c r="J108" s="2" t="inlineStr"/>
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
@@ -5863,7 +5847,7 @@
       </c>
       <c r="N108" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5887,12 +5871,12 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5901,7 +5885,7 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
@@ -5935,12 +5919,12 @@
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -5949,7 +5933,7 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
@@ -5958,54 +5942,6 @@
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n"/>
-      <c r="B111" s="2" t="n"/>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H111" s="2" t="inlineStr"/>
-      <c r="I111" s="2" t="inlineStr"/>
-      <c r="J111" s="2" t="inlineStr"/>
-      <c r="K111" s="2" t="inlineStr"/>
-      <c r="L111" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M111" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N111" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -6013,40 +5949,40 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="A67"/>
-    <mergeCell ref="A58"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A97:A105"/>
-    <mergeCell ref="B58"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B68:B82"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B67"/>
-    <mergeCell ref="B97:B105"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A43:A57"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A68:A82"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B42:B56"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="B67:B81"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A66"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B57"/>
+    <mergeCell ref="A67:A81"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="A57"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
+++ b/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,75 +1441,67 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1527,21 +1511,13 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -1549,23 +1525,31 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1599,21 +1583,29 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1623,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1657,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1684,72 +1676,64 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -1767,21 +1751,29 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1791,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1825,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1847,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1881,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1937,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1993,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2015,53 +2007,45 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2071,21 +2055,13 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="2" t="n"/>
       <c r="C30" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2093,23 +2069,31 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H30" s="2" t="inlineStr"/>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2143,21 +2127,29 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2167,7 +2159,7 @@
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2201,24 +2193,24 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -2228,8 +2220,16 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
-      <c r="B33" s="2" t="n"/>
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2237,63 +2237,47 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2311,21 +2295,29 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2335,7 +2327,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2369,19 +2361,19 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2391,7 +2383,7 @@
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2425,19 +2417,19 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2481,19 +2473,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2537,19 +2529,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2559,7 +2551,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2583,29 +2575,21 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2639,12 +2623,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr"/>
@@ -2653,12 +2637,12 @@
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -2668,64 +2652,56 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>bng</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>bng-condition-applies</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Biodiversity gain condition applies</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
       <c r="H41" s="2" t="inlineStr"/>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>bng</t>
-        </is>
-      </c>
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="2" t="n"/>
       <c r="C42" s="2" t="inlineStr">
         <is>
           <t>How any natural habitats on the development site will be improved by the proposed works.</t>
@@ -2733,28 +2709,36 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-applies</t>
+          <t>bng-condition-exemption-reasons</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
+          <t>Biodiversity gain condition exemption reason[]</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>exemption-type</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>Exemption type</t>
+        </is>
+      </c>
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2783,12 +2767,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>exemption-type</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Exemption type</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr"/>
@@ -2797,12 +2781,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2821,22 +2805,22 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-exemption-reasons</t>
+          <t>bng-details</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
+          <t>Biodiversity net gain details</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>pre-development-date</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr"/>
@@ -2845,12 +2829,12 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -2879,12 +2863,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>pre-development-date</t>
+          <t>pre-development-biodiversity-value</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
@@ -2893,12 +2877,12 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -2927,12 +2911,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>pre-development-biodiversity-value</t>
+          <t>earlier-date-reason</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -2941,17 +2925,17 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2975,12 +2959,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>earlier-date-reason</t>
+          <t>habitat-loss-after-2020</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Habitat loss after 2020</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -2989,12 +2973,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -3023,31 +3007,39 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-after-2020</t>
+          <t>habitat-loss-details</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>loss-date</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>Loss date</t>
+        </is>
+      </c>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3081,24 +3073,24 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>loss-date</t>
+          <t>pre-loss-biodiversity-value</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>Loss date</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3137,29 +3129,29 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>pre-loss-biodiversity-value</t>
+          <t>supporting-evidence</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Supporting evidence</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3183,39 +3175,31 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-details</t>
+          <t>metric-publication-date</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>supporting-evidence</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>Supporting evidence</t>
-        </is>
-      </c>
+          <t>Metric publication date</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3239,12 +3223,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>metric-publication-date</t>
+          <t>irreplaceable-habitats</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3253,12 +3237,12 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -3287,12 +3271,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats</t>
+          <t>irreplaceable-habitats-details</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Irreplaceable habitats details</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3301,17 +3285,17 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3335,21 +3319,29 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats-details</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3359,7 +3351,7 @@
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3393,19 +3385,19 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3420,48 +3412,40 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>bng-details</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr"/>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3478,27 +3462,27 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Community consultation</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>community-consultation</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>have-consulted</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Have consulted</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3509,12 +3493,12 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Whether community consultation has been carried out</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -3524,16 +3508,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Community consultation</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>community-consultation</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
           <t>What community consultation activities have taken place as part of the application</t>
@@ -3541,12 +3517,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>have-consulted</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Have consulted</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3557,36 +3533,44 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Whether community consultation has been carried out</t>
+          <t>Provide details of the community consultation</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n"/>
-      <c r="B59" s="2" t="n"/>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>What community consultation activities have taken place as part of the application</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3597,31 +3581,23 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Provide details of the community consultation</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A60" s="2" t="n"/>
+      <c r="B60" s="2" t="n"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -3629,12 +3605,12 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
@@ -3645,17 +3621,17 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3669,12 +3645,12 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -3685,7 +3661,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3700,21 +3676,29 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -3725,7 +3709,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3735,21 +3719,13 @@
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3757,12 +3733,12 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
@@ -3773,12 +3749,12 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3797,12 +3773,12 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -3813,12 +3789,12 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
@@ -3828,21 +3804,29 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Demolition reason</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>demolition-reason</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Why demolition is necessary at the development site</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
@@ -3853,7 +3837,7 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Why is it necessary to demolish all or part of the building(s) and structure(s)?</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3870,27 +3854,27 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Demolition reason</t>
+          <t>Ownership certificates and agricultural land declaration</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>demolition-reason</t>
+          <t>ownership-certs</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Why demolition is necessary at the development site</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Sole owner</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3901,12 +3885,12 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Why is it necessary to demolish all or part of the building(s) and structure(s)?</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -3916,16 +3900,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -3933,12 +3909,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3949,7 +3925,7 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3973,33 +3949,49 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
-      <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4033,19 +4025,19 @@
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -4055,7 +4047,7 @@
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4089,19 +4081,19 @@
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4145,19 +4137,19 @@
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
@@ -4201,19 +4193,19 @@
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J72" s="2" t="inlineStr"/>
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
@@ -4223,7 +4215,7 @@
       </c>
       <c r="N72" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4247,34 +4239,26 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H73" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I73" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr"/>
+      <c r="I73" s="2" t="inlineStr"/>
       <c r="J73" s="2" t="inlineStr"/>
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
@@ -4293,36 +4277,28 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr"/>
       <c r="H74" s="2" t="inlineStr"/>
       <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr"/>
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
@@ -4341,23 +4317,31 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H75" s="2" t="inlineStr"/>
       <c r="I75" s="2" t="inlineStr"/>
       <c r="J75" s="2" t="inlineStr"/>
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4367,7 +4351,7 @@
       </c>
       <c r="N75" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4391,12 +4375,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4405,12 +4389,12 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
@@ -4429,41 +4413,33 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr"/>
       <c r="H77" s="2" t="inlineStr"/>
       <c r="I77" s="2" t="inlineStr"/>
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4477,12 +4453,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4493,12 +4469,12 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
@@ -4517,12 +4493,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4533,7 +4509,7 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
@@ -4557,12 +4533,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4573,12 +4549,12 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
@@ -4588,21 +4564,29 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4613,31 +4597,23 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -4645,12 +4621,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4661,17 +4637,17 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4685,12 +4661,12 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4701,7 +4677,7 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
@@ -4725,12 +4701,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr"/>
@@ -4741,7 +4717,7 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4765,12 +4741,12 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr"/>
@@ -4781,7 +4757,7 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
@@ -4796,21 +4772,29 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n"/>
-      <c r="B86" s="2" t="n"/>
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
@@ -4821,7 +4805,7 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
@@ -4831,21 +4815,13 @@
       </c>
       <c r="N86" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -4853,12 +4829,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4869,12 +4845,12 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
@@ -4893,12 +4869,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4909,17 +4885,17 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4909,12 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr"/>
@@ -4949,17 +4925,17 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4973,12 +4949,12 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr"/>
@@ -4989,36 +4965,44 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Related applications</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>related-applications</t>
+        </is>
+      </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of any other development proposals made for the site</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>has-related-applications</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Has related applications</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr"/>
@@ -5029,60 +5013,60 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Are there any related applications, previous proposals or demolitions for the site</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>Related applications</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="2" t="n"/>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>Details of any other development proposals made for the site</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
         <is>
           <t>related-applications</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>Details of any other development proposals made for the site</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>has-related-applications</t>
-        </is>
-      </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Has related applications</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr"/>
-      <c r="G92" s="2" t="inlineStr"/>
+          <t>Related applications[]</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H92" s="2" t="inlineStr"/>
       <c r="I92" s="2" t="inlineStr"/>
       <c r="J92" s="2" t="inlineStr"/>
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Are there any related applications, previous proposals or demolitions for the site</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
@@ -5111,12 +5095,12 @@
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr"/>
@@ -5125,7 +5109,7 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -5159,12 +5143,12 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr"/>
@@ -5173,7 +5157,7 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5183,36 +5167,44 @@
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n"/>
-      <c r="B95" s="2" t="n"/>
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Details of any other development proposals made for the site</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>related-applications</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Related applications[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>decision-date</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr"/>
@@ -5221,12 +5213,12 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N95" s="2" t="inlineStr">
@@ -5236,16 +5228,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -5263,12 +5247,12 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -5277,12 +5261,12 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
@@ -5311,12 +5295,12 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -5325,7 +5309,7 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
@@ -5359,12 +5343,12 @@
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr"/>
@@ -5373,12 +5357,12 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
@@ -5407,12 +5391,12 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr"/>
@@ -5421,7 +5405,7 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
@@ -5455,12 +5439,12 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr"/>
@@ -5469,7 +5453,7 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
@@ -5503,12 +5487,12 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -5517,7 +5501,7 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5551,12 +5535,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5565,12 +5549,12 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N102" s="2" t="inlineStr">
@@ -5599,12 +5583,12 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5613,7 +5597,7 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
@@ -5628,64 +5612,56 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr"/>
       <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr"/>
       <c r="J104" s="2" t="inlineStr"/>
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A105" s="2" t="n"/>
+      <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -5693,12 +5669,12 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr"/>
@@ -5709,12 +5685,12 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
@@ -5733,12 +5709,12 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr"/>
@@ -5749,17 +5725,17 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5773,23 +5749,31 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H107" s="2" t="inlineStr"/>
       <c r="I107" s="2" t="inlineStr"/>
       <c r="J107" s="2" t="inlineStr"/>
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
@@ -5799,7 +5783,7 @@
       </c>
       <c r="N107" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5823,12 +5807,12 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
@@ -5837,7 +5821,7 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
@@ -5871,12 +5855,12 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5885,7 +5869,7 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
@@ -5894,54 +5878,6 @@
         </is>
       </c>
       <c r="N109" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G110" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H110" s="2" t="inlineStr"/>
-      <c r="I110" s="2" t="inlineStr"/>
-      <c r="J110" s="2" t="inlineStr"/>
-      <c r="K110" s="2" t="inlineStr"/>
-      <c r="L110" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M110" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N110" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -5949,40 +5885,40 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B42:B56"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="B67:B81"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B66"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="A66"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B57"/>
-    <mergeCell ref="A67:A81"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B96:B104"/>
-    <mergeCell ref="A57"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B65"/>
+    <mergeCell ref="A95:A103"/>
+    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A66:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B56"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A65"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A56"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B66:B80"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="B41:B55"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
+++ b/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,67 +1441,75 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1511,13 +1519,21 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -1525,31 +1541,23 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1583,29 +1591,21 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1676,64 +1676,72 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -1751,29 +1759,21 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1817,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1873,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1929,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1985,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2007,45 +2007,53 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2055,13 +2063,21 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2069,31 +2085,23 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
       <c r="H30" s="2" t="inlineStr"/>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2127,29 +2135,21 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2193,24 +2193,24 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -2220,16 +2220,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2237,47 +2229,63 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2295,29 +2303,21 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2361,19 +2361,19 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2417,19 +2417,19 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2473,19 +2473,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2529,19 +2529,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2575,21 +2575,29 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2623,12 +2631,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>user-role</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr"/>
@@ -2637,12 +2645,12 @@
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -2652,56 +2660,64 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>bng</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-applies</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>user-role</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="H41" s="2" t="inlineStr"/>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>bng</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
           <t>How any natural habitats on the development site will be improved by the proposed works.</t>
@@ -2709,36 +2725,28 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-exemption-reasons</t>
+          <t>bng-condition-applies</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>exemption-type</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Exemption type</t>
-        </is>
-      </c>
+          <t>Biodiversity gain condition applies</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2767,12 +2775,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>exemption-type</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Exemption type</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr"/>
@@ -2781,12 +2789,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2805,22 +2813,22 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>bng-details</t>
+          <t>bng-condition-exemption-reasons</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
+          <t>Biodiversity gain condition exemption reason[]</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>pre-development-date</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr"/>
@@ -2829,12 +2837,12 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -2863,12 +2871,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>pre-development-biodiversity-value</t>
+          <t>pre-development-date</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
@@ -2877,12 +2885,12 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -2911,12 +2919,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>earlier-date-reason</t>
+          <t>pre-development-biodiversity-value</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -2925,17 +2933,17 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2959,12 +2967,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-after-2020</t>
+          <t>earlier-date-reason</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -2973,12 +2981,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -3007,39 +3015,31 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-details</t>
+          <t>habitat-loss-after-2020</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>loss-date</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>Loss date</t>
-        </is>
-      </c>
+          <t>Habitat loss after 2020</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3073,24 +3073,24 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>pre-loss-biodiversity-value</t>
+          <t>loss-date</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Loss date</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3129,29 +3129,29 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>supporting-evidence</t>
+          <t>pre-loss-biodiversity-value</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>Supporting evidence</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3175,31 +3175,39 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>metric-publication-date</t>
+          <t>habitat-loss-details</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>supporting-evidence</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>Supporting evidence</t>
+        </is>
+      </c>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3223,12 +3231,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats</t>
+          <t>metric-publication-date</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Metric publication date</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3237,12 +3245,12 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -3271,12 +3279,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats-details</t>
+          <t>irreplaceable-habitats</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3285,17 +3293,17 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3319,29 +3327,21 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>irreplaceable-habitats-details</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Irreplaceable habitats details</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3385,19 +3385,19 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -5886,18 +5886,18 @@
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="B65"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A95:A103"/>
-    <mergeCell ref="A41:A55"/>
     <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B2:B18"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A66:A80"/>
     <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B95:B103"/>
-    <mergeCell ref="B23:B28"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="A57:A58"/>
@@ -5905,20 +5905,20 @@
     <mergeCell ref="A91:A94"/>
     <mergeCell ref="A65"/>
     <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B24:B29"/>
     <mergeCell ref="A56"/>
     <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B42:B55"/>
     <mergeCell ref="B66:B80"/>
-    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B2:B19"/>
     <mergeCell ref="B91:B94"/>
     <mergeCell ref="A86:A90"/>
     <mergeCell ref="B104:B109"/>
-    <mergeCell ref="B41:B55"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
+++ b/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
+++ b/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
+++ b/generated/spreadsheet/verbose/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area-verbose.xlsx
@@ -4533,12 +4533,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4549,12 +4549,12 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
